--- a/biology/Médecine/Ugo_Cerletti/Ugo_Cerletti.xlsx
+++ b/biology/Médecine/Ugo_Cerletti/Ugo_Cerletti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ugo Cerletti (né le 26 septembre 1877 à Conegliano et mort le 25 juillet 1963 à Rome) est un psychiatre et neurologue italien, professeur de psychiatrie à l'université de Rome « La Sapienza ». Il a introduit l'utilisation des électrochocs en psychiatrie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études médicales à Rome et à Turin, Ugo Cerletti s'est spécialisé en neurologie et en neuropsychiatrie. Cerletti a été plus tard nommé à la tête de l'institut de neuro-psychiatrie de Milan, et en 1924 il fut maître de conférence en neuropsychiatrie à Bari.
 En 1928 l'idée d'employer l'électrochoc chez l'Homme est venue du fait qu'on croyait à l'époque qu'il y avait une corrélation entre l'état de grand mal de l'épilepsie et la schizophrénie. Il a également observé des porcs anesthésiés par l'électrochoc avant d'être envoyés à la boucherie, à Rome.
